--- a/medicine/Pharmacie/Acide_aminohippurique/Acide_aminohippurique.xlsx
+++ b/medicine/Pharmacie/Acide_aminohippurique/Acide_aminohippurique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide aminohippurique, ou plus précisément l'acide paraaminohippurique, parfois abrégé en PAH (de l'anglais para-aminohippuric acid) est un dérivé de l'acide hippurique, un produit utilisé pour mesurer le débit plasmatique rénal. C'est un dérivé amide de l'acide aminé glycine et de l'acide para-aminobenzoïque.
@@ -512,7 +524,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide aminohippurique peut être synthétisé par condensation entre la glycine et l'acide para-aminobenzoïque, notamment en plaçant dans le milieu un agent déshydratant. La réaction est alors rapide, mais assez chaotique, de multiples sous-produits pouvant apparaître. Une méthode plus élégante de synthèse est la nitration de l'acide hippurique en acide para-nitrohippurique, puis de réduire ce dernier en acide aminohippurique. Il faut cependant choisir un réducteur très sélectif qui préserve la fonction cétone.
 </t>
@@ -545,11 +559,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostic urologique
-L'acide aminohippurique est utile pour mesurer le flux de plasma dans le rein, car il  est filtré par le glomérule et entièrement sécrété dans l'urine par les tubules rénaux [3]. Ainsi, la clairance rénale du PAH est utile pour calculer le débit de plasma rénal, qui est empiriquement (1-hématocrite) x flux sanguin rénal. À noter cependant que la clairance du PAH ne reflète que le débit de plasma rénal  qui s'occupe de la formation de l'urine (débit plasmatique rénal efficace), et donc sous-estime d'environ 10 % le flux de plasma rénal réel[4].
-Le ratio d'extraction rénal du PAH chez un individu normal est d'environ 0,92[5].
-Pharmacologie
-Pharmacologiquement, l'acide aminohippurique est souvent utilisé sous la forme de sel de sodium, l'aminohippurate de sodium. Pendant la Seconde Guerre mondiale, le para-aminohippurate était administré avec la pénicilline afin de prolonger le temps de circulation dans le sang de cette dernière. En effet, puisque la pénicilline et le para-aminohippurate sont en compétition pour le même transporteur dans le rein, en administrant du para-aminohippurate on fait diminuer le taux de clairance rénale de la pénicilline, on allonge ainsi sa durée de vie dans l'organisme et on améliore son efficacité.
+          <t>Diagnostic urologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acide aminohippurique est utile pour mesurer le flux de plasma dans le rein, car il  est filtré par le glomérule et entièrement sécrété dans l'urine par les tubules rénaux . Ainsi, la clairance rénale du PAH est utile pour calculer le débit de plasma rénal, qui est empiriquement (1-hématocrite) x flux sanguin rénal. À noter cependant que la clairance du PAH ne reflète que le débit de plasma rénal  qui s'occupe de la formation de l'urine (débit plasmatique rénal efficace), et donc sous-estime d'environ 10 % le flux de plasma rénal réel.
+Le ratio d'extraction rénal du PAH chez un individu normal est d'environ 0,92.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acide_aminohippurique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_aminohippurique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pharmacologiquement, l'acide aminohippurique est souvent utilisé sous la forme de sel de sodium, l'aminohippurate de sodium. Pendant la Seconde Guerre mondiale, le para-aminohippurate était administré avec la pénicilline afin de prolonger le temps de circulation dans le sang de cette dernière. En effet, puisque la pénicilline et le para-aminohippurate sont en compétition pour le même transporteur dans le rein, en administrant du para-aminohippurate on fait diminuer le taux de clairance rénale de la pénicilline, on allonge ainsi sa durée de vie dans l'organisme et on améliore son efficacité.
 </t>
         </is>
       </c>
